--- a/import/CARRE.xlsx
+++ b/import/CARRE.xlsx
@@ -335,7 +335,7 @@
     <t>Balisage de véhicules</t>
   </si>
   <si>
-    <t>T2S</t>
+    <t>T2S (Véhicules)</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -399,6 +399,12 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -561,7 +567,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -602,10 +608,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,6 +656,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -690,31 +696,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -730,11 +728,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -806,7 +804,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="image2.png" descr=""/>
+        <xdr:cNvPr id="1" name="image1.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -845,7 +843,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image3.jpeg" descr=""/>
+        <xdr:cNvPr id="2" name="image2.jpeg" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -884,7 +882,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="image4.png" descr=""/>
+        <xdr:cNvPr id="3" name="image2.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -923,7 +921,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="image5.png" descr=""/>
+        <xdr:cNvPr id="4" name="image3.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -962,7 +960,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="image6.png" descr=""/>
+        <xdr:cNvPr id="5" name="image4.png" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -997,7 +995,7 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1140,14 +1138,14 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1156,17 +1154,17 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1174,17 +1172,17 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1192,15 +1190,15 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1208,17 +1206,17 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1226,17 +1224,17 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1244,17 +1242,17 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1262,15 +1260,15 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="19"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1278,15 +1276,15 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1294,17 +1292,17 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1312,17 +1310,17 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1330,17 +1328,17 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="18"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1348,17 +1346,17 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1366,17 +1364,17 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1384,17 +1382,17 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1402,17 +1400,17 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="8"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1420,17 +1418,17 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="8"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1438,17 +1436,17 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1456,17 +1454,17 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14"/>
-      <c r="B27" s="20" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1474,7 +1472,7 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="23" t="s">
         <v>41</v>
       </c>
@@ -1482,9 +1480,9 @@
         <v>42</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1492,15 +1490,15 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="23"/>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12"/>
       <c r="F29" s="24"/>
-      <c r="G29" s="19"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1508,7 +1506,7 @@
       <c r="L29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="25" t="s">
         <v>44</v>
       </c>
@@ -1516,7 +1514,7 @@
       <c r="D30" s="26"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="10"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -1524,17 +1522,17 @@
       <c r="L30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1542,15 +1540,15 @@
       <c r="L31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D32" s="8"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -1558,17 +1556,17 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14"/>
-      <c r="B33" s="20" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="19" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -1576,33 +1574,33 @@
       <c r="L33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="28"/>
       <c r="H34" s="29"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="13"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14"/>
-      <c r="B35" s="20" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="19" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="18"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -1610,17 +1608,17 @@
       <c r="L35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14"/>
-      <c r="B36" s="20" t="s">
+      <c r="A36" s="13"/>
+      <c r="B36" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D36" s="8"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="18"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1628,17 +1626,17 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14"/>
-      <c r="B37" s="20" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="19" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1646,17 +1644,17 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14"/>
-      <c r="B38" s="20" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="13"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="12"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -1665,7 +1663,7 @@
     </row>
     <row r="39" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="2"/>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="26"/>
@@ -1680,17 +1678,17 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="19"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -1698,15 +1696,15 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="18"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -1714,17 +1712,17 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14"/>
-      <c r="B42" s="20" t="s">
+      <c r="A42" s="13"/>
+      <c r="B42" s="19" t="s">
         <v>63</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="18"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -1732,7 +1730,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="14"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="31" t="s">
         <v>65</v>
       </c>
@@ -1742,7 +1740,7 @@
       <c r="D43" s="8"/>
       <c r="E43" s="32"/>
       <c r="F43" s="33"/>
-      <c r="G43" s="19"/>
+      <c r="G43" s="18"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -1750,7 +1748,7 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="14"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="31"/>
       <c r="C44" s="8" t="s">
         <v>67</v>
@@ -1758,7 +1756,7 @@
       <c r="D44" s="8"/>
       <c r="E44" s="32"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="19"/>
+      <c r="G44" s="18"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -1766,7 +1764,7 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="14"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="31"/>
       <c r="C45" s="8" t="s">
         <v>68</v>
@@ -1774,7 +1772,7 @@
       <c r="D45" s="8"/>
       <c r="E45" s="32"/>
       <c r="F45" s="33"/>
-      <c r="G45" s="19"/>
+      <c r="G45" s="18"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -1782,7 +1780,7 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="14"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="31"/>
       <c r="C46" s="8" t="s">
         <v>69</v>
@@ -1790,7 +1788,7 @@
       <c r="D46" s="8"/>
       <c r="E46" s="32"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="19"/>
+      <c r="G46" s="18"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -1798,7 +1796,7 @@
       <c r="L46" s="2"/>
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="34"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="31"/>
       <c r="C47" s="8" t="s">
         <v>70</v>
@@ -1806,7 +1804,7 @@
       <c r="D47" s="8"/>
       <c r="E47" s="32"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="35"/>
+      <c r="G47" s="18"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -1814,7 +1812,7 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="34"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="31" t="s">
         <v>71</v>
       </c>
@@ -1824,7 +1822,7 @@
       <c r="D48" s="8"/>
       <c r="E48" s="32"/>
       <c r="F48" s="33"/>
-      <c r="G48" s="35"/>
+      <c r="G48" s="18"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -1832,7 +1830,7 @@
       <c r="L48" s="2"/>
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="34"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="31" t="s">
         <v>73</v>
       </c>
@@ -1842,7 +1840,7 @@
       <c r="D49" s="8"/>
       <c r="E49" s="32"/>
       <c r="F49" s="33"/>
-      <c r="G49" s="35"/>
+      <c r="G49" s="18"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -1850,17 +1848,17 @@
       <c r="L49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="14"/>
-      <c r="B50" s="36" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="19"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="18"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -1884,17 +1882,17 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="18"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -1902,8 +1900,8 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14"/>
-      <c r="B53" s="36" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -1912,7 +1910,7 @@
       <c r="D53" s="8"/>
       <c r="E53" s="32"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="19"/>
+      <c r="G53" s="18"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -1924,10 +1922,10 @@
       <c r="B54" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -1936,17 +1934,17 @@
       <c r="L54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="19"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="18"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -1954,15 +1952,15 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D56" s="8"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="18"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -1970,17 +1968,17 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="14"/>
-      <c r="B57" s="20" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D57" s="8"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="18"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -1988,7 +1986,7 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="14"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="31" t="s">
         <v>88</v>
       </c>
@@ -1996,9 +1994,9 @@
         <v>89</v>
       </c>
       <c r="D58" s="8"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="18"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -2006,15 +2004,15 @@
       <c r="L58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="14"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="31"/>
       <c r="C59" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D59" s="8"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="18"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -2022,7 +2020,7 @@
       <c r="L59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="14"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="31"/>
       <c r="C60" s="8" t="s">
         <v>91</v>
@@ -2030,7 +2028,7 @@
       <c r="D60" s="8"/>
       <c r="E60" s="32"/>
       <c r="F60" s="33"/>
-      <c r="G60" s="19"/>
+      <c r="G60" s="18"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -2038,7 +2036,7 @@
       <c r="L60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="14"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="31"/>
       <c r="C61" s="8" t="s">
         <v>92</v>
@@ -2046,7 +2044,7 @@
       <c r="D61" s="8"/>
       <c r="E61" s="32"/>
       <c r="F61" s="33"/>
-      <c r="G61" s="19"/>
+      <c r="G61" s="18"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -2054,7 +2052,7 @@
       <c r="L61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="14"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="31" t="s">
         <v>93</v>
       </c>
@@ -2064,7 +2062,7 @@
       <c r="D62" s="8"/>
       <c r="E62" s="32"/>
       <c r="F62" s="33"/>
-      <c r="G62" s="19"/>
+      <c r="G62" s="18"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -2072,7 +2070,7 @@
       <c r="L62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="14"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="31" t="s">
         <v>95</v>
       </c>
@@ -2082,7 +2080,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="32"/>
       <c r="F63" s="33"/>
-      <c r="G63" s="19"/>
+      <c r="G63" s="18"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -2090,8 +2088,8 @@
       <c r="L63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14"/>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -2100,7 +2098,7 @@
       <c r="D64" s="8"/>
       <c r="E64" s="32"/>
       <c r="F64" s="33"/>
-      <c r="G64" s="19"/>
+      <c r="G64" s="18"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -2108,15 +2106,15 @@
       <c r="L64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="14"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="8" t="s">
         <v>99</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="32"/>
       <c r="F65" s="33"/>
-      <c r="G65" s="19"/>
+      <c r="G65" s="18"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -2124,8 +2122,8 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="14"/>
-      <c r="B66" s="20" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -2134,7 +2132,7 @@
       <c r="D66" s="8"/>
       <c r="E66" s="32"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="19"/>
+      <c r="G66" s="18"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -2142,15 +2140,15 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="14"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="32"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="19"/>
+      <c r="G67" s="18"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -2158,8 +2156,8 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="14"/>
-      <c r="B68" s="20" t="s">
+      <c r="A68" s="13"/>
+      <c r="B68" s="19" t="s">
         <v>103</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -2168,7 +2166,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="32"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="19"/>
+      <c r="G68" s="18"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -2176,7 +2174,7 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="14"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="31" t="s">
         <v>105</v>
       </c>
@@ -2186,7 +2184,7 @@
       <c r="D69" s="8"/>
       <c r="E69" s="32"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="19"/>
+      <c r="G69" s="18"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -2194,10 +2192,10 @@
       <c r="L69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="10.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="39"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
       <c r="E70" s="32"/>
       <c r="F70" s="32"/>
       <c r="G70" s="2"/>
@@ -2209,11 +2207,11 @@
     </row>
     <row r="71" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="2"/>
-      <c r="B71" s="42"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -2223,11 +2221,11 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="2"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -2237,11 +2235,11 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="2"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -2251,11 +2249,11 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="2"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -2265,11 +2263,11 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -2279,11 +2277,11 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="2"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -2293,11 +2291,11 @@
     </row>
     <row r="77" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -2307,11 +2305,11 @@
     </row>
     <row r="78" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="2"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
